--- a/stripped/P51320.mes.bin.xlsx
+++ b/stripped/P51320.mes.bin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1230C0F-090F-46F7-9321-3DCE1AD29076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40680082-D10A-46A6-9460-72CC8E7A9993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16275" yWindow="6510" windowWidth="33855" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33810" yWindow="0" windowWidth="33900" windowHeight="21090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P51320.mes.bin" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
     <t>59</t>
   </si>
   <si>
-    <t>^Oh! Are you heading to see Ogata-san-san?^</t>
+    <t>^Oh! Are you heading to see Ogata-san?^</t>
   </si>
   <si>
     <t>61</t>

--- a/stripped/P51320.mes.bin.xlsx
+++ b/stripped/P51320.mes.bin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40680082-D10A-46A6-9460-72CC8E7A9993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5756D9B0-A79A-4DA0-AD28-8425D5765D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33810" yWindow="0" windowWidth="33900" windowHeight="21090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="5460" windowWidth="50850" windowHeight="21795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P51320.mes.bin" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
   <si>
     <t>Status</t>
   </si>
@@ -125,6 +125,9 @@
     <t>47</t>
   </si>
   <si>
+    <t>While I agree with Yayoi-san, she could've said it in a nicer\nway.</t>
+  </si>
+  <si>
     <t>49</t>
   </si>
   <si>
@@ -162,6 +165,9 @@
   </si>
   <si>
     <t>69</t>
+  </si>
+  <si>
+    <t>Didn't Yayoi-san just tell her to take a break?</t>
   </si>
   <si>
     <t>71</t>
@@ -676,7 +682,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1076,7 +1084,9 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -1085,7 +1095,7 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1099,7 +1109,7 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1113,7 +1123,7 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
@@ -1129,7 +1139,7 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1143,7 +1153,7 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1157,7 +1167,7 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
@@ -1165,7 +1175,7 @@
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -1175,7 +1185,7 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
@@ -1191,7 +1201,7 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1205,13 +1215,13 @@
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -1221,7 +1231,7 @@
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
@@ -1237,12 +1247,14 @@
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -1251,7 +1263,7 @@
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
@@ -1267,13 +1279,13 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -1283,7 +1295,7 @@
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -1297,7 +1309,7 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
@@ -1313,7 +1325,7 @@
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
@@ -1329,7 +1341,7 @@
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1343,7 +1355,7 @@
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -1357,7 +1369,7 @@
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
@@ -1365,7 +1377,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -1375,7 +1387,7 @@
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
@@ -1391,7 +1403,7 @@
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
@@ -1399,7 +1411,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -1409,7 +1421,7 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
@@ -1417,7 +1429,7 @@
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -1427,7 +1439,7 @@
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
@@ -1435,7 +1447,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -1445,7 +1457,7 @@
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -1459,13 +1471,13 @@
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -1475,7 +1487,7 @@
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -1489,7 +1501,7 @@
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -1503,7 +1515,7 @@
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -1517,13 +1529,13 @@
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -1533,7 +1545,7 @@
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -1547,7 +1559,7 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -1561,7 +1573,7 @@
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -1575,7 +1587,7 @@
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -1589,7 +1601,7 @@
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -1603,7 +1615,7 @@
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -1617,13 +1629,13 @@
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
@@ -1633,7 +1645,7 @@
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
